--- a/pcb/EduRov-motherboard/eduRov_motherboard_bom.xlsx
+++ b/pcb/EduRov-motherboard/eduRov_motherboard_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="225">
   <si>
     <t>Component</t>
   </si>
@@ -109,7 +109,7 @@
     <t>5vReg101</t>
   </si>
   <si>
-    <t>PinHeader_1x04_P2.54mm_Vertical</t>
+    <t>iFlight_Micro</t>
   </si>
   <si>
     <t>~</t>
@@ -268,6 +268,27 @@
     <t>1N4001</t>
   </si>
   <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Fuseholder_Blade_Mini_Keystone_3568</t>
+  </si>
+  <si>
+    <t>36-3568-ND</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>3568</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>L6203</t>
   </si>
   <si>
@@ -289,7 +310,7 @@
     <t>56P8434</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -304,7 +325,7 @@
     <t>Ext press</t>
   </si>
   <si>
-    <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
+    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
   </si>
   <si>
     <t>JST</t>
@@ -313,19 +334,31 @@
     <t>PHR-3</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>P104 P105</t>
-  </si>
-  <si>
-    <t>JST_PH_B4B-PH-K_1x04_P2.00mm_Vertical</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>PinHeader_1x04_P2.54mm_Horizontal</t>
   </si>
   <si>
     <t>PHR-4</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>P105 P106</t>
+  </si>
+  <si>
+    <t>HeadLight</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>IRL540NPBF</t>
@@ -343,7 +376,7 @@
     <t>Infineon Technologies</t>
   </si>
   <si>
-    <t>13</t>
+    <t>15</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -364,7 +397,7 @@
     <t>Do not mount</t>
   </si>
   <si>
-    <t>14</t>
+    <t>16</t>
   </si>
   <si>
     <t>R101 R102 R103 R104 R105 R108 R109 R110 R111 R112</t>
@@ -385,7 +418,7 @@
     <t>CF14JT10K0</t>
   </si>
   <si>
-    <t>15</t>
+    <t>17</t>
   </si>
   <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
@@ -412,7 +445,7 @@
     <t>Raspberry PI 3 or 4</t>
   </si>
   <si>
-    <t>16</t>
+    <t>18</t>
   </si>
   <si>
     <t>±5A Bidirectional Hall-Effect Current Sensor, +5.0V supply, 400mV/A, SOIC-8</t>
@@ -439,7 +472,7 @@
     <t>ACS723LLCTR-05AB-T</t>
   </si>
   <si>
-    <t>17</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic</t>
@@ -460,7 +493,7 @@
     <t>SSW-115-01-T-S</t>
   </si>
   <si>
-    <t>18</t>
+    <t>20</t>
   </si>
   <si>
     <t>U7</t>
@@ -478,7 +511,7 @@
     <t>114990838</t>
   </si>
   <si>
-    <t>19</t>
+    <t>21</t>
   </si>
   <si>
     <t>U9 U11 U13 U15 U17 U19 U21 U23</t>
@@ -496,7 +529,7 @@
     <t>FSDX78-8-D</t>
   </si>
   <si>
-    <t>20</t>
+    <t>22</t>
   </si>
   <si>
     <t>U8</t>
@@ -514,7 +547,7 @@
     <t>FIT0299</t>
   </si>
   <si>
-    <t>21</t>
+    <t>23</t>
   </si>
   <si>
     <t>U10 U14 U18 U22</t>
@@ -532,7 +565,7 @@
     <t>04M025045HN</t>
   </si>
   <si>
-    <t>22</t>
+    <t>24</t>
   </si>
   <si>
     <t>U5</t>
@@ -550,7 +583,7 @@
     <t>MPX4250AP</t>
   </si>
   <si>
-    <t>23</t>
+    <t>25</t>
   </si>
   <si>
     <t>U3</t>
@@ -568,7 +601,7 @@
     <t>1979</t>
   </si>
   <si>
-    <t>24</t>
+    <t>26</t>
   </si>
   <si>
     <t>U6</t>
@@ -583,7 +616,7 @@
     <t>SENSE HAT</t>
   </si>
   <si>
-    <t>25</t>
+    <t>27</t>
   </si>
   <si>
     <t>U12 U16 U20 U24</t>
@@ -598,7 +631,7 @@
     <t>971160151</t>
   </si>
   <si>
-    <t>26</t>
+    <t>28</t>
   </si>
   <si>
     <t>U4</t>
@@ -643,7 +676,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>16/06/2021 01:03:35</t>
+    <t>03/07/2021 13:59:12</t>
   </si>
   <si>
     <t>Schematic Source:</t>
@@ -993,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1472,7 +1505,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>84</v>
@@ -1487,10 +1520,10 @@
         <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>87</v>
@@ -1499,19 +1532,19 @@
         <v>88</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>23</v>
@@ -1519,49 +1552,49 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>23</v>
@@ -1569,22 +1602,22 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
@@ -1596,10 +1629,10 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>23</v>
@@ -1619,22 +1652,22 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1643,13 +1676,13 @@
         <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>23</v>
@@ -1669,37 +1702,37 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>23</v>
@@ -1714,42 +1747,42 @@
         <v>23</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>23</v>
@@ -1769,87 +1802,87 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>23</v>
@@ -1869,37 +1902,37 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>23</v>
@@ -1919,37 +1952,37 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>23</v>
@@ -1969,37 +2002,37 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>23</v>
@@ -2019,19 +2052,19 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
@@ -2043,13 +2076,13 @@
         <v>23</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>23</v>
@@ -2069,37 +2102,37 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>23</v>
@@ -2119,19 +2152,19 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>23</v>
@@ -2143,13 +2176,13 @@
         <v>23</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>23</v>
@@ -2169,37 +2202,37 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>23</v>
@@ -2219,19 +2252,19 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>23</v>
@@ -2243,10 +2276,10 @@
         <v>23</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>188</v>
@@ -2275,7 +2308,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>190</v>
@@ -2287,7 +2320,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>23</v>
@@ -2296,10 +2329,10 @@
         <v>192</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>23</v>
@@ -2319,19 +2352,19 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>23</v>
@@ -2343,10 +2376,10 @@
         <v>23</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>199</v>
@@ -2367,84 +2400,184 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="2">
-        <v>89</v>
+      <c r="E28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B35" s="2">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B37" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>215</v>
+      </c>
+      <c r="B39" s="2">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
